--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,111 +537,917 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.646387616343913</v>
+        <v>0.026618</v>
       </c>
       <c r="H2">
-        <v>0.646387616343913</v>
+        <v>0.07985399999999999</v>
       </c>
       <c r="I2">
-        <v>0.7346492536903643</v>
+        <v>0.01885126588703216</v>
       </c>
       <c r="J2">
-        <v>0.7346492536903643</v>
+        <v>0.01885126588703216</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.454550543302221</v>
+        <v>0.036035</v>
       </c>
       <c r="N2">
-        <v>0.454550543302221</v>
+        <v>0.108105</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.06613313985747471</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.06613313985747468</v>
       </c>
       <c r="Q2">
-        <v>0.2938158421929532</v>
+        <v>0.0009591796300000001</v>
       </c>
       <c r="R2">
-        <v>0.2938158421929532</v>
+        <v>0.008632616669999999</v>
       </c>
       <c r="S2">
-        <v>0.7346492536903643</v>
+        <v>0.00124669340339754</v>
       </c>
       <c r="T2">
-        <v>0.7346492536903643</v>
+        <v>0.001246693403397539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.026618</v>
+      </c>
+      <c r="H3">
+        <v>0.07985399999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.01885126588703216</v>
+      </c>
+      <c r="J3">
+        <v>0.01885126588703216</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.4903776666666667</v>
+      </c>
+      <c r="N3">
+        <v>1.471133</v>
+      </c>
+      <c r="O3">
+        <v>0.8999643350256354</v>
+      </c>
+      <c r="P3">
+        <v>0.8999643350256352</v>
+      </c>
+      <c r="Q3">
+        <v>0.01305287273133333</v>
+      </c>
+      <c r="R3">
+        <v>0.117475854582</v>
+      </c>
+      <c r="S3">
+        <v>0.01696546696841434</v>
+      </c>
+      <c r="T3">
+        <v>0.01696546696841434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.026618</v>
+      </c>
+      <c r="H4">
+        <v>0.07985399999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.01885126588703216</v>
+      </c>
+      <c r="J4">
+        <v>0.01885126588703216</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.018473</v>
+      </c>
+      <c r="N4">
+        <v>0.055419</v>
+      </c>
+      <c r="O4">
+        <v>0.03390252511688997</v>
+      </c>
+      <c r="P4">
+        <v>0.03390252511688996</v>
+      </c>
+      <c r="Q4">
+        <v>0.000491714314</v>
+      </c>
+      <c r="R4">
+        <v>0.004425428826</v>
+      </c>
+      <c r="S4">
+        <v>0.0006391055152202787</v>
+      </c>
+      <c r="T4">
+        <v>0.0006391055152202786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.813943</v>
+      </c>
+      <c r="H5">
+        <v>2.441829</v>
+      </c>
+      <c r="I5">
+        <v>0.5764466116871522</v>
+      </c>
+      <c r="J5">
+        <v>0.5764466116871522</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.036035</v>
+      </c>
+      <c r="N5">
+        <v>0.108105</v>
+      </c>
+      <c r="O5">
+        <v>0.06613313985747471</v>
+      </c>
+      <c r="P5">
+        <v>0.06613313985747468</v>
+      </c>
+      <c r="Q5">
+        <v>0.029330436005</v>
+      </c>
+      <c r="R5">
+        <v>0.263973924045</v>
+      </c>
+      <c r="S5">
+        <v>0.03812222439107385</v>
+      </c>
+      <c r="T5">
+        <v>0.03812222439107384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.813943</v>
+      </c>
+      <c r="H6">
+        <v>2.441829</v>
+      </c>
+      <c r="I6">
+        <v>0.5764466116871522</v>
+      </c>
+      <c r="J6">
+        <v>0.5764466116871522</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.4903776666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.471133</v>
+      </c>
+      <c r="O6">
+        <v>0.8999643350256354</v>
+      </c>
+      <c r="P6">
+        <v>0.8999643350256352</v>
+      </c>
+      <c r="Q6">
+        <v>0.3991394691396666</v>
+      </c>
+      <c r="R6">
+        <v>3.592255222257</v>
+      </c>
+      <c r="S6">
+        <v>0.5187813915648086</v>
+      </c>
+      <c r="T6">
+        <v>0.5187813915648085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.813943</v>
+      </c>
+      <c r="H7">
+        <v>2.441829</v>
+      </c>
+      <c r="I7">
+        <v>0.5764466116871522</v>
+      </c>
+      <c r="J7">
+        <v>0.5764466116871522</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.018473</v>
+      </c>
+      <c r="N7">
+        <v>0.055419</v>
+      </c>
+      <c r="O7">
+        <v>0.03390252511688997</v>
+      </c>
+      <c r="P7">
+        <v>0.03390252511688996</v>
+      </c>
+      <c r="Q7">
+        <v>0.015035969039</v>
+      </c>
+      <c r="R7">
+        <v>0.135323721351</v>
+      </c>
+      <c r="S7">
+        <v>0.01954299573126979</v>
+      </c>
+      <c r="T7">
+        <v>0.01954299573126979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.039454</v>
+      </c>
+      <c r="H8">
+        <v>0.118362</v>
+      </c>
+      <c r="I8">
+        <v>0.02794191315301551</v>
+      </c>
+      <c r="J8">
+        <v>0.02794191315301551</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.036035</v>
+      </c>
+      <c r="N8">
+        <v>0.108105</v>
+      </c>
+      <c r="O8">
+        <v>0.06613313985747471</v>
+      </c>
+      <c r="P8">
+        <v>0.06613313985747468</v>
+      </c>
+      <c r="Q8">
+        <v>0.00142172489</v>
+      </c>
+      <c r="R8">
+        <v>0.01279552401</v>
+      </c>
+      <c r="S8">
+        <v>0.001847886450433787</v>
+      </c>
+      <c r="T8">
+        <v>0.001847886450433786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.039454</v>
+      </c>
+      <c r="H9">
+        <v>0.118362</v>
+      </c>
+      <c r="I9">
+        <v>0.02794191315301551</v>
+      </c>
+      <c r="J9">
+        <v>0.02794191315301551</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4903776666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.471133</v>
+      </c>
+      <c r="O9">
+        <v>0.8999643350256354</v>
+      </c>
+      <c r="P9">
+        <v>0.8999643350256352</v>
+      </c>
+      <c r="Q9">
+        <v>0.01934736046066667</v>
+      </c>
+      <c r="R9">
+        <v>0.174126244146</v>
+      </c>
+      <c r="S9">
+        <v>0.02514672529009766</v>
+      </c>
+      <c r="T9">
+        <v>0.02514672529009765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.039454</v>
+      </c>
+      <c r="H10">
+        <v>0.118362</v>
+      </c>
+      <c r="I10">
+        <v>0.02794191315301551</v>
+      </c>
+      <c r="J10">
+        <v>0.02794191315301551</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.018473</v>
+      </c>
+      <c r="N10">
+        <v>0.055419</v>
+      </c>
+      <c r="O10">
+        <v>0.03390252511688997</v>
+      </c>
+      <c r="P10">
+        <v>0.03390252511688996</v>
+      </c>
+      <c r="Q10">
+        <v>0.0007288337419999999</v>
+      </c>
+      <c r="R10">
+        <v>0.006559503678</v>
+      </c>
+      <c r="S10">
+        <v>0.0009473014124840662</v>
+      </c>
+      <c r="T10">
+        <v>0.0009473014124840661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.233471191239316</v>
-      </c>
-      <c r="H3">
-        <v>0.233471191239316</v>
-      </c>
-      <c r="I3">
-        <v>0.2653507463096357</v>
-      </c>
-      <c r="J3">
-        <v>0.2653507463096357</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.454550543302221</v>
-      </c>
-      <c r="N3">
-        <v>0.454550543302221</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.1061244568232478</v>
-      </c>
-      <c r="R3">
-        <v>0.1061244568232478</v>
-      </c>
-      <c r="S3">
-        <v>0.2653507463096357</v>
-      </c>
-      <c r="T3">
-        <v>0.2653507463096357</v>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1300063333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.390019</v>
+      </c>
+      <c r="I11">
+        <v>0.09207243056070323</v>
+      </c>
+      <c r="J11">
+        <v>0.09207243056070323</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.036035</v>
+      </c>
+      <c r="N11">
+        <v>0.108105</v>
+      </c>
+      <c r="O11">
+        <v>0.06613313985747471</v>
+      </c>
+      <c r="P11">
+        <v>0.06613313985747468</v>
+      </c>
+      <c r="Q11">
+        <v>0.004684778221666667</v>
+      </c>
+      <c r="R11">
+        <v>0.042163003995</v>
+      </c>
+      <c r="S11">
+        <v>0.006089038927288615</v>
+      </c>
+      <c r="T11">
+        <v>0.006089038927288613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1300063333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.390019</v>
+      </c>
+      <c r="I12">
+        <v>0.09207243056070323</v>
+      </c>
+      <c r="J12">
+        <v>0.09207243056070323</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4903776666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.471133</v>
+      </c>
+      <c r="O12">
+        <v>0.8999643350256354</v>
+      </c>
+      <c r="P12">
+        <v>0.8999643350256352</v>
+      </c>
+      <c r="Q12">
+        <v>0.06375220239188889</v>
+      </c>
+      <c r="R12">
+        <v>0.5737698215270001</v>
+      </c>
+      <c r="S12">
+        <v>0.08286190374375728</v>
+      </c>
+      <c r="T12">
+        <v>0.08286190374375725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1300063333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.390019</v>
+      </c>
+      <c r="I13">
+        <v>0.09207243056070323</v>
+      </c>
+      <c r="J13">
+        <v>0.09207243056070323</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.018473</v>
+      </c>
+      <c r="N13">
+        <v>0.055419</v>
+      </c>
+      <c r="O13">
+        <v>0.03390252511688997</v>
+      </c>
+      <c r="P13">
+        <v>0.03390252511688996</v>
+      </c>
+      <c r="Q13">
+        <v>0.002401606995666667</v>
+      </c>
+      <c r="R13">
+        <v>0.021614462961</v>
+      </c>
+      <c r="S13">
+        <v>0.003121487889657349</v>
+      </c>
+      <c r="T13">
+        <v>0.003121487889657348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4019793333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.205938</v>
+      </c>
+      <c r="I14">
+        <v>0.2846877787120969</v>
+      </c>
+      <c r="J14">
+        <v>0.2846877787120969</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.036035</v>
+      </c>
+      <c r="N14">
+        <v>0.108105</v>
+      </c>
+      <c r="O14">
+        <v>0.06613313985747471</v>
+      </c>
+      <c r="P14">
+        <v>0.06613313985747468</v>
+      </c>
+      <c r="Q14">
+        <v>0.01448532527666667</v>
+      </c>
+      <c r="R14">
+        <v>0.13036792749</v>
+      </c>
+      <c r="S14">
+        <v>0.01882729668528092</v>
+      </c>
+      <c r="T14">
+        <v>0.01882729668528091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4019793333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.205938</v>
+      </c>
+      <c r="I15">
+        <v>0.2846877787120969</v>
+      </c>
+      <c r="J15">
+        <v>0.2846877787120969</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4903776666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.471133</v>
+      </c>
+      <c r="O15">
+        <v>0.8999643350256354</v>
+      </c>
+      <c r="P15">
+        <v>0.8999643350256352</v>
+      </c>
+      <c r="Q15">
+        <v>0.1971216875282222</v>
+      </c>
+      <c r="R15">
+        <v>1.774095187754</v>
+      </c>
+      <c r="S15">
+        <v>0.2562088474585575</v>
+      </c>
+      <c r="T15">
+        <v>0.2562088474585575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4019793333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.205938</v>
+      </c>
+      <c r="I16">
+        <v>0.2846877787120969</v>
+      </c>
+      <c r="J16">
+        <v>0.2846877787120969</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.018473</v>
+      </c>
+      <c r="N16">
+        <v>0.055419</v>
+      </c>
+      <c r="O16">
+        <v>0.03390252511688997</v>
+      </c>
+      <c r="P16">
+        <v>0.03390252511688996</v>
+      </c>
+      <c r="Q16">
+        <v>0.007425764224666666</v>
+      </c>
+      <c r="R16">
+        <v>0.066831878022</v>
+      </c>
+      <c r="S16">
+        <v>0.009651634568258478</v>
+      </c>
+      <c r="T16">
+        <v>0.009651634568258476</v>
       </c>
     </row>
   </sheetData>
